--- a/docs/画面項目定義書/security_group/security_group_deteil.xlsx
+++ b/docs/画面項目定義書/security_group/security_group_deteil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\security_group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9CDFFD-A7F2-4A15-87FF-E045FADF279D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91353B07-52D7-42F4-9845-17A564539CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t>日本工学院</t>
   </si>
@@ -69,149 +69,147 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>セキュリティグループ詳細編集画面</t>
+    <t>ページタイトル</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テキストボックスタイトル「セキュリティグループ名」</t>
+    <rPh sb="23" eb="24">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テキストボックス「セキュリティグループ名」</t>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インバウンドルール「ルール名」</t>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インバウンドルール「ポート番号」</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インバウンドルール「プロトコル」</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インバウンドルール「送信元IP」</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インバウンドルール「許可/拒否」</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インバウンドルールタイトル</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インバウンドルール</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>アウトバウンドルールタイトル</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>アウトバウンドルール「ルール名」</t>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>アウトバウンドルール「ポート番号」</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>アウトバウンドルール「プロトコル」</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>アウトバウンドルール「送信元IP」</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>アウトバウンドルール「許可/拒否」</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>セキュリティグループ名</t>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Ref(利用者サイドバー)</t>
+    <rPh sb="4" eb="7">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テキストボックスタイトル「説明」</t>
+    <rPh sb="13" eb="15">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テキストボックス「説明」</t>
+    <rPh sb="9" eb="11">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>セキュリティグループエンティティより</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>セキュリティグループエンティティを取得し、表示</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>セキュリティグループエンティティを取得し、繰り返しで表示</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>セキュリティグループ詳細画面</t>
     <rPh sb="10" eb="12">
       <t>ショウサイ</t>
     </rPh>
     <rPh sb="12" eb="14">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ページタイトル</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>セキュリティグループ詳細編集</t>
+    <t>セキュリティグループ詳細</t>
     <rPh sb="10" eb="12">
       <t>ショウサイ</t>
     </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>テキストボックスタイトル「セキュリティグループ名」</t>
-    <rPh sb="23" eb="24">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>テキストボックス「セキュリティグループ名」</t>
-    <rPh sb="19" eb="20">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>インバウンドルール「ルール名」</t>
-    <rPh sb="13" eb="14">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>インバウンドルール「ポート番号」</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>インバウンドルール「プロトコル」</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>インバウンドルール「送信元IP」</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>インバウンドルール「許可/拒否」</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>インバウンドルールタイトル</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>インバウンドルール</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>アウトバウンドルールタイトル</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>アウトバウンドルール「ルール名」</t>
-    <rPh sb="14" eb="15">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>アウトバウンドルール「ポート番号」</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>アウトバウンドルール「プロトコル」</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>アウトバウンドルール「送信元IP」</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>アウトバウンドルール「許可/拒否」</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>セキュリティグループ名</t>
-    <rPh sb="10" eb="11">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Ref(利用者サイドバー)</t>
-    <rPh sb="4" eb="7">
-      <t>リヨウシャ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>テキストボックスタイトル「説明」</t>
-    <rPh sb="13" eb="15">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>テキストボックス「説明」</t>
-    <rPh sb="9" eb="11">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>説明</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>セキュリティグループエンティティより</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>セキュリティグループエンティティを取得し、表示</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>セキュリティグループエンティティを取得し、繰り返しで表示</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>security_group_detail.html</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -637,13 +635,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1096,20 +1094,20 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
-    <col min="6" max="6" width="40.875" customWidth="1"/>
-    <col min="7" max="7" width="41.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="29.90625" customWidth="1"/>
+    <col min="6" max="6" width="40.90625" customWidth="1"/>
+    <col min="7" max="7" width="41.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1118,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5">
+    <row r="2" spans="1:7" ht="13">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1129,7 +1127,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="14">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1138,7 +1136,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5">
+    <row r="4" spans="1:7" ht="13">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1147,11 +1145,11 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:7" ht="13">
+      <c r="A5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1160,18 +1158,20 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5">
-      <c r="A6" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="11"/>
+    <row r="6" spans="1:7" ht="13">
+      <c r="A6" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5">
+    <row r="7" spans="1:7" ht="13">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1180,7 +1180,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5">
+    <row r="8" spans="1:7" ht="13">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5">
+    <row r="9" spans="1:7" ht="13">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1213,24 +1213,24 @@
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5">
+    <row r="10" spans="1:7" ht="13">
       <c r="A10" s="28">
         <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
@@ -1240,14 +1240,14 @@
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="33"/>
     </row>
@@ -1256,33 +1256,33 @@
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13">
       <c r="A13" s="31">
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
@@ -1292,121 +1292,121 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="23.1" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="23.15" customHeight="1">
       <c r="A15" s="31">
         <v>7</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="24">
       <c r="A16" s="31">
         <v>11</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="13.5">
+    </row>
+    <row r="17" spans="1:7" ht="24">
       <c r="A17" s="31">
         <v>12</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="13.5">
+    </row>
+    <row r="18" spans="1:7" ht="24">
       <c r="A18" s="31">
         <v>13</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="31"/>
-      <c r="E18" s="41" t="s">
-        <v>36</v>
+      <c r="E18" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="13.5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="24">
       <c r="A19" s="31">
         <v>14</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="31"/>
-      <c r="E19" s="41" t="s">
-        <v>36</v>
+      <c r="E19" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="13.5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24">
       <c r="A20" s="31">
         <v>15</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="34" t="s">
         <v>36</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="22.5" customHeight="1">
@@ -1414,110 +1414,110 @@
         <v>13</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="13.5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24">
       <c r="A22" s="28">
         <v>14</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="13.5">
+    </row>
+    <row r="23" spans="1:7" ht="24">
       <c r="A23" s="21">
         <v>15</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="13.5">
+    </row>
+    <row r="24" spans="1:7" ht="24">
       <c r="A24" s="28">
         <v>16</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="31"/>
-      <c r="E24" s="41" t="s">
-        <v>36</v>
+      <c r="E24" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="13.5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="24">
       <c r="A25" s="21">
         <v>17</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="31"/>
-      <c r="E25" s="41" t="s">
-        <v>36</v>
+      <c r="E25" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="13.5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="24">
       <c r="A26" s="21">
         <v>18</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="13.5">
+    </row>
+    <row r="27" spans="1:7" ht="13">
       <c r="A27" s="21">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.5">
+    <row r="28" spans="1:7" ht="13">
       <c r="A28" s="21">
         <v>20</v>
       </c>
@@ -1528,7 +1528,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13.5">
+    <row r="29" spans="1:7" ht="13">
       <c r="A29" s="21">
         <v>21</v>
       </c>
